--- a/data/unchecked/manual_collect/china/aomen/aomenCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/aomen/aomenCaseStatistics_20200217.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\新型肺炎\2月18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB8A969-D2BB-4334-BB66-A498B1000ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F40C53-C436-4186-9F64-5CBC206A64E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9226" uniqueCount="3299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9235" uniqueCount="3302">
   <si>
     <t>统计级别</t>
   </si>
@@ -10313,6 +10313,17 @@
   </si>
   <si>
     <t>澳门特别行政区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nhc.gov.cn/xcs/yqfkdt/202002/261f72a74be14c4db6e1b582133cf4b8.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10780,10 +10791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
@@ -10963,9 +10974,7 @@
       <c r="F2" s="12" t="s">
         <v>3298</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>3298</v>
-      </c>
+      <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -11009,13 +11018,67 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
+    <row r="3" spans="1:40" ht="15.75">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C3" s="14">
+        <v>43878</v>
+      </c>
+      <c r="D3" s="14">
+        <v>43879</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3298</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>3287</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="T3" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>3300</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>43879.416666666664</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>3291</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>3292</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>3293</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:R1048576 I3:P1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:R1048576 I3:L1048576 P3:P1048576 M4:O1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -11027,8 +11090,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>INDIRECT($F3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>INDIRECT($F4)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
@@ -11043,7 +11106,7 @@
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576 G2</xm:sqref>
+          <xm:sqref>G2:G3 F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11057,7 +11120,7 @@
   <sheetViews>
     <sheetView topLeftCell="AF1" zoomScale="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN16" sqref="AN16"/>
+      <selection pane="bottomLeft" activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
